--- a/8/5/1/Exportaciones 2003 a 2021 - Trimestral.xlsx
+++ b/8/5/1/Exportaciones 2003 a 2021 - Trimestral.xlsx
@@ -16734,19 +16734,19 @@
         <v>144</v>
       </c>
       <c r="B74">
-        <v>21897</v>
+        <v>22232</v>
       </c>
       <c r="C74">
-        <v>12855</v>
+        <v>13109</v>
       </c>
       <c r="D74">
-        <v>11837</v>
+        <v>12090</v>
       </c>
       <c r="E74">
-        <v>4716</v>
+        <v>4777</v>
       </c>
       <c r="F74">
-        <v>6662</v>
+        <v>6846</v>
       </c>
       <c r="G74">
         <v>436</v>
@@ -16767,40 +16767,40 @@
         <v>33</v>
       </c>
       <c r="M74">
-        <v>2826</v>
+        <v>2905</v>
       </c>
       <c r="N74">
-        <v>2678</v>
+        <v>2755</v>
       </c>
       <c r="O74">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="P74">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q74">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R74">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="S74">
         <v>2</v>
       </c>
       <c r="T74">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U74">
-        <v>1282</v>
+        <v>1350</v>
       </c>
       <c r="V74">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W74">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X74">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y74">
         <v>24</v>
@@ -16812,10 +16812,10 @@
         <v>25</v>
       </c>
       <c r="AB74">
-        <v>6216</v>
+        <v>6218</v>
       </c>
       <c r="AC74">
-        <v>2433</v>
+        <v>2439</v>
       </c>
       <c r="AD74">
         <v>71</v>
@@ -16824,10 +16824,10 @@
         <v>31</v>
       </c>
       <c r="AF74">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="AG74">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH74">
         <v>13</v>
@@ -16866,16 +16866,16 @@
         <v>360</v>
       </c>
       <c r="AT74">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AU74">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AV74">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AW74">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AX74">
         <v>70</v>
@@ -16887,7 +16887,7 @@
         <v>85</v>
       </c>
       <c r="BA74">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="BB74">
         <v>59</v>
@@ -16902,13 +16902,13 @@
         <v>88</v>
       </c>
       <c r="BF74">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="BG74">
         <v>64</v>
       </c>
       <c r="BH74">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BI74">
         <v>62</v>
@@ -16917,16 +16917,16 @@
         <v>123</v>
       </c>
       <c r="BK74">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="BL74">
         <v>77</v>
       </c>
       <c r="BM74">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN74">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BO74">
         <v>62</v>
@@ -16952,19 +16952,19 @@
         <v>145</v>
       </c>
       <c r="B75">
-        <v>23480</v>
+        <v>23234</v>
       </c>
       <c r="C75">
-        <v>15139</v>
+        <v>14899</v>
       </c>
       <c r="D75">
-        <v>13875</v>
+        <v>13636</v>
       </c>
       <c r="E75">
-        <v>5217</v>
+        <v>5122</v>
       </c>
       <c r="F75">
-        <v>8011</v>
+        <v>7869</v>
       </c>
       <c r="G75">
         <v>607</v>
@@ -16976,7 +16976,7 @@
         <v>208</v>
       </c>
       <c r="J75">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K75">
         <v>226</v>
@@ -16991,7 +16991,7 @@
         <v>1146</v>
       </c>
       <c r="O75">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P75">
         <v>275</v>
@@ -17012,13 +17012,13 @@
         <v>2</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>211</v>
       </c>
       <c r="X75">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y75">
         <v>64</v>
@@ -17030,10 +17030,10 @@
         <v>31</v>
       </c>
       <c r="AB75">
-        <v>6941</v>
+        <v>6935</v>
       </c>
       <c r="AC75">
-        <v>2647</v>
+        <v>2643</v>
       </c>
       <c r="AD75">
         <v>114</v>
@@ -17045,7 +17045,7 @@
         <v>1058</v>
       </c>
       <c r="AG75">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AH75">
         <v>13</v>
@@ -17069,7 +17069,7 @@
         <v>37</v>
       </c>
       <c r="AO75">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP75">
         <v>230</v>
@@ -17087,13 +17087,13 @@
         <v>87</v>
       </c>
       <c r="AU75">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AV75">
         <v>222</v>
       </c>
       <c r="AW75">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX75">
         <v>74</v>
@@ -17105,7 +17105,7 @@
         <v>83</v>
       </c>
       <c r="BA75">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="BB75">
         <v>87</v>
@@ -17120,13 +17120,13 @@
         <v>82</v>
       </c>
       <c r="BF75">
-        <v>1394</v>
+        <v>1405</v>
       </c>
       <c r="BG75">
         <v>70</v>
       </c>
       <c r="BH75">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BI75">
         <v>88</v>
@@ -17135,34 +17135,34 @@
         <v>99</v>
       </c>
       <c r="BK75">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BL75">
         <v>92</v>
       </c>
       <c r="BM75">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BN75">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO75">
         <v>85</v>
       </c>
       <c r="BP75">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="BQ75">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BR75">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BS75">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="BT75">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/8/5/1/Exportaciones 2003 a 2021 - Trimestral.xlsx
+++ b/8/5/1/Exportaciones 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Serie</t>
   </si>
@@ -453,6 +453,9 @@
   <si>
     <t>01-04-2021</t>
   </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -809,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT75"/>
+  <dimension ref="A1:BT76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17165,6 +17168,224 @@
         <v>238</v>
       </c>
     </row>
+    <row r="76" spans="1:72">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76">
+        <v>23194</v>
+      </c>
+      <c r="C76">
+        <v>14700</v>
+      </c>
+      <c r="D76">
+        <v>13124</v>
+      </c>
+      <c r="E76">
+        <v>5355</v>
+      </c>
+      <c r="F76">
+        <v>7172</v>
+      </c>
+      <c r="G76">
+        <v>839</v>
+      </c>
+      <c r="H76">
+        <v>105</v>
+      </c>
+      <c r="I76">
+        <v>203</v>
+      </c>
+      <c r="J76">
+        <v>127</v>
+      </c>
+      <c r="K76">
+        <v>252</v>
+      </c>
+      <c r="L76">
+        <v>34</v>
+      </c>
+      <c r="M76">
+        <v>1129</v>
+      </c>
+      <c r="N76">
+        <v>967</v>
+      </c>
+      <c r="O76">
+        <v>3</v>
+      </c>
+      <c r="P76">
+        <v>223</v>
+      </c>
+      <c r="Q76">
+        <v>24</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>103</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>24</v>
+      </c>
+      <c r="W76">
+        <v>119</v>
+      </c>
+      <c r="X76">
+        <v>10</v>
+      </c>
+      <c r="Y76">
+        <v>47</v>
+      </c>
+      <c r="Z76">
+        <v>13</v>
+      </c>
+      <c r="AA76">
+        <v>30</v>
+      </c>
+      <c r="AB76">
+        <v>7365</v>
+      </c>
+      <c r="AC76">
+        <v>2672</v>
+      </c>
+      <c r="AD76">
+        <v>121</v>
+      </c>
+      <c r="AE76">
+        <v>44</v>
+      </c>
+      <c r="AF76">
+        <v>1102</v>
+      </c>
+      <c r="AG76">
+        <v>69</v>
+      </c>
+      <c r="AH76">
+        <v>27</v>
+      </c>
+      <c r="AI76">
+        <v>12</v>
+      </c>
+      <c r="AJ76">
+        <v>173</v>
+      </c>
+      <c r="AK76">
+        <v>103</v>
+      </c>
+      <c r="AL76">
+        <v>116</v>
+      </c>
+      <c r="AM76">
+        <v>74</v>
+      </c>
+      <c r="AN76">
+        <v>31</v>
+      </c>
+      <c r="AO76">
+        <v>154</v>
+      </c>
+      <c r="AP76">
+        <v>176</v>
+      </c>
+      <c r="AQ76">
+        <v>529</v>
+      </c>
+      <c r="AR76">
+        <v>23</v>
+      </c>
+      <c r="AS76">
+        <v>405</v>
+      </c>
+      <c r="AT76">
+        <v>85</v>
+      </c>
+      <c r="AU76">
+        <v>722</v>
+      </c>
+      <c r="AV76">
+        <v>237</v>
+      </c>
+      <c r="AW76">
+        <v>69</v>
+      </c>
+      <c r="AX76">
+        <v>97</v>
+      </c>
+      <c r="AY76">
+        <v>108</v>
+      </c>
+      <c r="AZ76">
+        <v>135</v>
+      </c>
+      <c r="BA76">
+        <v>925</v>
+      </c>
+      <c r="BB76">
+        <v>86</v>
+      </c>
+      <c r="BC76">
+        <v>339</v>
+      </c>
+      <c r="BD76">
+        <v>271</v>
+      </c>
+      <c r="BE76">
+        <v>82</v>
+      </c>
+      <c r="BF76">
+        <v>1428</v>
+      </c>
+      <c r="BG76">
+        <v>35</v>
+      </c>
+      <c r="BH76">
+        <v>105</v>
+      </c>
+      <c r="BI76">
+        <v>98</v>
+      </c>
+      <c r="BJ76">
+        <v>135</v>
+      </c>
+      <c r="BK76">
+        <v>431</v>
+      </c>
+      <c r="BL76">
+        <v>83</v>
+      </c>
+      <c r="BM76">
+        <v>306</v>
+      </c>
+      <c r="BN76">
+        <v>90</v>
+      </c>
+      <c r="BO76">
+        <v>84</v>
+      </c>
+      <c r="BP76">
+        <v>519</v>
+      </c>
+      <c r="BQ76">
+        <v>89</v>
+      </c>
+      <c r="BR76">
+        <v>261</v>
+      </c>
+      <c r="BS76">
+        <v>169</v>
+      </c>
+      <c r="BT76">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
